--- a/biology/Botanique/Ilex_guianensis/Ilex_guianensis.xlsx
+++ b/biology/Botanique/Ilex_guianensis/Ilex_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ilex guianensis est une espèce d'arbuste néotropical appartenant au genre Ilex (genre du houx) et à la famille des Aquifoliaceae.
-Au Suriname, on le nomme Sckrepatoe-wiwirie (Sranan tongo), Wajam moesesamoer (Karib)[4].
-Au Venezuela, on l'appelle Oji-o-botoli (Warao)[5].
+Au Suriname, on le nomme Sckrepatoe-wiwirie (Sranan tongo), Wajam moesesamoer (Karib).
+Au Venezuela, on l'appelle Oji-o-botoli (Warao).
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ilex guianensis est un petit arbre ou un arbuste atteignant 6-10 (20) m de haut.
 Les tiges sont grisâtres, striées, pubérulentes dans leur partie supérieure.
@@ -527,7 +541,7 @@
 Les jeunes fleurs mâles ont leur pédoncules longs jusqu'à 1 cm, le calice à 5 lobes obtus au-delà du milieu, les pétales longs de 1,5-2 mm, les étamines aussi longues que les pétales (ou plus courtes).
 Les fleurs femelles ont un pédoncules longs d'environ 0,5 cm, le calice à 5 lobes échancrés jusqu'au milieu, les pétales presque libres, longs de 2 à 25 mm, les staminodes plus courtes que les pétales, et l'ovaire sub-globuleux, le stigmate sessile en forme de disque.
 Le fruit est une baie de forme ellipsoïde ou sub-globuleuse, mesurant 4-6 mm de diamètre, et de couleur verte au rouge ou noire.
-Le pyrènes est trigone, lisse, long de près de 5 mm[5],[4].
+Le pyrènes est trigone, lisse, long de près de 5 mm,.
 </t>
         </is>
       </c>
@@ -556,9 +570,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ilex guianensis est présent dans les zones côtières en Amérique centrale (depuis le Mexique?), en passant par les Grandes Antilles (Porto Rico, Hispaniola), jusqu'à la Colombie, Trinidad, le Venezuela, le Guyana, le Suriname et la Guyane[4],[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ilex guianensis est présent dans les zones côtières en Amérique centrale (depuis le Mexique?), en passant par les Grandes Antilles (Porto Rico, Hispaniola), jusqu'à la Colombie, Trinidad, le Venezuela, le Guyana, le Suriname et la Guyane,.
 </t>
         </is>
       </c>
@@ -587,10 +603,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ilex guianensis pousse au Venezuela dans les bosquets d'arbustes sur sable blanc, les forêts-galeries, les berges des plans d'eau, les peuplements de palmiers-bâche, les forêts mixtes à feuillage persistant et les forêts de plaine ou sub-montagnardes autour de 50-1 300 m d'altitude[5].
-Ilex guianensis fait partie des végétations tourbeuses au Panama[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ilex guianensis pousse au Venezuela dans les bosquets d'arbustes sur sable blanc, les forêts-galeries, les berges des plans d'eau, les peuplements de palmiers-bâche, les forêts mixtes à feuillage persistant et les forêts de plaine ou sub-montagnardes autour de 50-1 300 m d'altitude.
+Ilex guianensis fait partie des végétations tourbeuses au Panama.
 </t>
         </is>
       </c>
@@ -619,10 +637,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ilex guianensis est une plante mellifère[7].
-Ilex guianensis contient des flavonoïdes aglycones[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ilex guianensis est une plante mellifère.
+Ilex guianensis contient des flavonoïdes aglycones.
 </t>
         </is>
       </c>
@@ -651,9 +671,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[9] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « MACOUCOUA guianenſis. (Tabula 34.)
 Arbor trunco trigirita vel quadraginta-pedali, in flimmitare ramoſo ; ramis hínc &amp; inde ſparſis. Flores corymboſi, axillares, pedunculate pedunculo communi è ſinu duarum ſquammarum exeunte.
 Florebat Februario.
